--- a/Gantt-Diagramm.xlsx
+++ b/Gantt-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF40BFA-EF72-4EA2-B7A9-DFA66756F207}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216782C7-99ED-4D65-97D5-DFF3EE6CB791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt ein Gantt-Diagramm.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -171,9 +171,6 @@
     <t>Klasse "Gameboard"</t>
   </si>
   <si>
-    <t>Klasse "main"</t>
-  </si>
-  <si>
     <t>Klasse "Player"</t>
   </si>
   <si>
@@ -202,6 +199,15 @@
   </si>
   <si>
     <t>Ufo/Wurmloch</t>
+  </si>
+  <si>
+    <t>Klasse "Client"</t>
+  </si>
+  <si>
+    <t>Klasse "Client2"</t>
+  </si>
+  <si>
+    <t>Gameserver</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1519,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:E38" totalsRowShown="0">
-  <autoFilter ref="B6:E38" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Meilensteine" displayName="Meilensteine" ref="B6:E40" totalsRowShown="0">
+  <autoFilter ref="B6:E40" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1801,10 +1807,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BJ40"/>
+  <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1819,7 +1825,7 @@
     <col min="67" max="68" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="50.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:62" ht="31.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="52">
@@ -5134,311 +5140,311 @@
         <v>36</v>
       </c>
       <c r="C19" s="21">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D19" s="49">
-        <v>43605</v>
+        <v>43606</v>
       </c>
       <c r="E19" s="23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="25"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="25"/>
-      <c r="AJ19" s="25"/>
-      <c r="AK19" s="25"/>
-      <c r="AL19" s="25"/>
-      <c r="AM19" s="25"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="25"/>
-      <c r="AQ19" s="25"/>
-      <c r="AR19" s="25"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="25"/>
-      <c r="AU19" s="25"/>
-      <c r="AV19" s="25"/>
-      <c r="AW19" s="25"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="25"/>
-      <c r="AZ19" s="25"/>
-      <c r="BA19" s="25"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="25"/>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="25"/>
-      <c r="BF19" s="25"/>
-      <c r="BG19" s="25"/>
-      <c r="BH19" s="25"/>
-      <c r="BI19" s="25"/>
-      <c r="BJ19" s="25"/>
+      <c r="G19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="H19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ19" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D19,$E19=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" s="21">
         <v>1</v>
       </c>
       <c r="D20" s="49">
-        <v>43606</v>
+        <v>43614</v>
       </c>
       <c r="E20" s="23">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F20" s="17"/>
-      <c r="G20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ20" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D20,$E20=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="25"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
     </row>
     <row r="21" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
@@ -5449,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="49">
-        <v>43614</v>
+        <v>43619</v>
       </c>
       <c r="E21" s="23">
         <v>3</v>
@@ -5515,16 +5521,16 @@
     <row r="22" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C22" s="21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D22" s="49">
         <v>43619</v>
       </c>
       <c r="E22" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="25"/>
@@ -5586,728 +5592,392 @@
     </row>
     <row r="23" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
-      <c r="B23" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="23"/>
+      <c r="B23" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="49">
+        <v>43619</v>
+      </c>
+      <c r="E23" s="23">
+        <v>7</v>
+      </c>
       <c r="F23" s="17"/>
-      <c r="G23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D23,$E23=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
     </row>
     <row r="24" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="27" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C24" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="49">
-        <v>43616</v>
+        <v>43619</v>
       </c>
       <c r="E24" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F24" s="17"/>
-      <c r="G24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ24" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D24,$E24=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
     </row>
     <row r="25" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="D25" s="49">
-        <v>43612</v>
-      </c>
-      <c r="E25" s="23">
-        <v>7</v>
-      </c>
+      <c r="B25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="17"/>
       <c r="G25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="H25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="I25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="J25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="K25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="L25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="M25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="N25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="O25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="P25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Q25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="R25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="S25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="T25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="U25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="V25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="W25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="X25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Y25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Z25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AA25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AB25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AC25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AD25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AE25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AF25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AG25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AH25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AI25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AJ25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AK25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AL25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AM25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AN25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AO25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AP25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AQ25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AR25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AS25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AT25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AU25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AV25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AW25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AX25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AY25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AZ25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BA25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BB25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BC25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BD25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BE25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BF25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BG25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BH25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BI25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BJ25" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D25,$E25=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" s="21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="49">
-        <v>43606</v>
+        <v>43616</v>
       </c>
       <c r="E26" s="23">
         <v>3</v>
@@ -6541,16 +6211,16 @@
     <row r="27" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" s="21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D27" s="49">
-        <v>43619</v>
+        <v>43612</v>
       </c>
       <c r="E27" s="23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="25" t="str">
@@ -6781,13 +6451,13 @@
     <row r="28" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="27" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C28" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D28" s="49">
-        <v>43626</v>
+        <v>43606</v>
       </c>
       <c r="E28" s="23">
         <v>3</v>
@@ -7020,858 +6690,864 @@
     </row>
     <row r="29" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
-      <c r="B29" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="49">
+        <v>43619</v>
+      </c>
+      <c r="E29" s="23">
+        <v>3</v>
+      </c>
       <c r="F29" s="17"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="25"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="25"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="25"/>
-      <c r="AD29" s="25"/>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="25"/>
-      <c r="AG29" s="25"/>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="25"/>
-      <c r="AJ29" s="25"/>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="25"/>
-      <c r="AM29" s="25"/>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="25"/>
-      <c r="AP29" s="25"/>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="25"/>
-      <c r="AS29" s="25"/>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="25"/>
-      <c r="AV29" s="25"/>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="25"/>
-      <c r="AY29" s="25"/>
-      <c r="AZ29" s="25"/>
-      <c r="BA29" s="25"/>
-      <c r="BB29" s="25"/>
-      <c r="BC29" s="25"/>
-      <c r="BD29" s="25"/>
-      <c r="BE29" s="25"/>
-      <c r="BF29" s="25"/>
-      <c r="BG29" s="25"/>
-      <c r="BH29" s="25"/>
-      <c r="BI29" s="25"/>
-      <c r="BJ29" s="25"/>
+      <c r="G29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="H29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ29" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D29,$E29=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="27" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C30" s="21">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="D30" s="49">
-        <v>43617</v>
-      </c>
-      <c r="E30" s="23"/>
+        <v>43626</v>
+      </c>
+      <c r="E30" s="23">
+        <v>3</v>
+      </c>
       <c r="F30" s="17"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="25"/>
-      <c r="AA30" s="25"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="25"/>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="25"/>
-      <c r="AG30" s="25"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="25"/>
-      <c r="AM30" s="25"/>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="25"/>
-      <c r="AP30" s="25"/>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="25"/>
-      <c r="AS30" s="25"/>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="25"/>
-      <c r="AV30" s="25"/>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="25"/>
-      <c r="AY30" s="25"/>
-      <c r="AZ30" s="25"/>
-      <c r="BA30" s="25"/>
-      <c r="BB30" s="25"/>
-      <c r="BC30" s="25"/>
-      <c r="BD30" s="25"/>
-      <c r="BE30" s="25"/>
-      <c r="BF30" s="25"/>
-      <c r="BG30" s="25"/>
-      <c r="BH30" s="25"/>
-      <c r="BI30" s="25"/>
-      <c r="BJ30" s="25"/>
+      <c r="G30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="H30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ30" s="25" t="str">
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D30,$E30=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="49"/>
       <c r="E31" s="23"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ31" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D31,$E31=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="25"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="25"/>
     </row>
     <row r="32" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9"/>
       <c r="B32" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="21"/>
+        <v>38</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0.95</v>
+      </c>
       <c r="D32" s="49">
-        <v>43619</v>
-      </c>
-      <c r="E32" s="23">
-        <v>7</v>
-      </c>
+        <v>43617</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="L32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="M32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="P32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Q32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="R32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="S32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="T32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="U32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="V32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="W32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="X32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Y32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="Z32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AA32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AB32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AC32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AD32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AE32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AF32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AG32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AH32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AI32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AJ32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AK32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AL32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AM32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AN32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AO32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AP32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AQ32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AR32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AS32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AT32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AU32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AV32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AW32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AX32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AY32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="AZ32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BA32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BB32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BC32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BD32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BE32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BF32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BG32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BH32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BI32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
-      <c r="BJ32" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D32,$E32=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
-      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+      <c r="AF32" s="25"/>
+      <c r="AG32" s="25"/>
+      <c r="AH32" s="25"/>
+      <c r="AI32" s="25"/>
+      <c r="AJ32" s="25"/>
+      <c r="AK32" s="25"/>
+      <c r="AL32" s="25"/>
+      <c r="AM32" s="25"/>
+      <c r="AN32" s="25"/>
+      <c r="AO32" s="25"/>
+      <c r="AP32" s="25"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
+      <c r="BF32" s="25"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
     </row>
     <row r="33" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
-      <c r="B33" s="27" t="s">
-        <v>31</v>
+      <c r="B33" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="49">
-        <v>43626</v>
-      </c>
-      <c r="E33" s="23">
-        <v>3</v>
-      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="17"/>
       <c r="G33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="H33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="I33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="J33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="K33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="L33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="M33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="N33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="O33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="P33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Q33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="R33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="S33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="T33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="U33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="V33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="W33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="X33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Y33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Z33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AA33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AB33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AC33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AD33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AE33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AF33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AG33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AH33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AI33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AJ33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AK33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AL33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AM33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AN33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AO33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AP33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AQ33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AR33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AS33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AT33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AU33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AV33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AW33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AX33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AY33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AZ33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BA33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BB33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BC33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BD33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BE33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BF33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BG33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BH33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BI33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BJ33" s="25" t="str">
-        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D33,$E33=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.5</v>
+      </c>
       <c r="D34" s="49">
-        <v>43626</v>
+        <v>43619</v>
       </c>
       <c r="E34" s="23">
         <v>7</v>
@@ -8104,465 +7780,481 @@
     </row>
     <row r="35" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="23"/>
+      <c r="B35" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="49">
+        <v>43626</v>
+      </c>
+      <c r="E35" s="23">
+        <v>3</v>
+      </c>
       <c r="F35" s="17"/>
       <c r="G35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="H35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="I35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="J35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="K35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="L35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="M35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="N35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="O35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="P35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Q35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="R35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="S35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="T35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="U35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="V35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="W35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="X35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Y35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Z35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AA35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AB35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AC35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AD35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AE35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AF35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AG35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AH35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AI35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AJ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AK35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AL35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AM35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AN35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AO35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AP35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AQ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AR35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AS35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AT35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AU35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AV35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AW35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AX35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AY35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AZ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BA35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BB35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BC35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BD35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BE35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BF35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BG35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BH35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BI35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BJ35" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D35,$E35=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="23"/>
+      <c r="B36" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0</v>
+      </c>
+      <c r="D36" s="49">
+        <v>43633</v>
+      </c>
+      <c r="E36" s="23">
+        <v>7</v>
+      </c>
       <c r="F36" s="17"/>
       <c r="G36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="H36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="I36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="J36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="K36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="L36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="M36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="N36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="O36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="P36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Q36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="R36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="S36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="T36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="U36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="V36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="W36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="X36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Y36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="Z36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AA36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AB36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AC36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AD36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AE36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AF36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AG36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AH36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AI36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AJ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AK36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AL36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AM36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AN36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AO36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AP36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AQ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AR36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AS36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AT36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AU36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AV36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AW36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AX36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AY36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="AZ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BA36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BB36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BC36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BD36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BE36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BF36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BG36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BH36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BI36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
       <c r="BJ36" s="25" t="str">
-        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -8573,67 +8265,233 @@
       <c r="D37" s="49"/>
       <c r="E37" s="23"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="25"/>
-      <c r="AA37" s="25"/>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="25"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="25"/>
-      <c r="AG37" s="25"/>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="25"/>
-      <c r="AJ37" s="25"/>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="25"/>
-      <c r="AM37" s="25"/>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="25"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="25"/>
-      <c r="AS37" s="25"/>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="25"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="25"/>
-      <c r="AY37" s="25"/>
-      <c r="AZ37" s="25"/>
-      <c r="BA37" s="25"/>
-      <c r="BB37" s="25"/>
-      <c r="BC37" s="25"/>
-      <c r="BD37" s="25"/>
-      <c r="BE37" s="25"/>
-      <c r="BF37" s="25"/>
-      <c r="BG37" s="25"/>
-      <c r="BH37" s="25"/>
-      <c r="BI37" s="25"/>
-      <c r="BJ37" s="25"/>
+      <c r="G37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ37" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D37,$E37=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="38" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A38" s="9"/>
       <c r="B38" s="27"/>
       <c r="C38" s="21"/>
       <c r="D38" s="49"/>
@@ -8864,83 +8722,381 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25"/>
+      <c r="AH39" s="25"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="25"/>
+      <c r="AM39" s="25"/>
+      <c r="AN39" s="25"/>
+      <c r="AO39" s="25"/>
+      <c r="AP39" s="25"/>
+      <c r="AQ39" s="25"/>
+      <c r="AR39" s="25"/>
+      <c r="AS39" s="25"/>
+      <c r="AT39" s="25"/>
+      <c r="AU39" s="25"/>
+      <c r="AV39" s="25"/>
+      <c r="AW39" s="25"/>
+      <c r="AX39" s="25"/>
+      <c r="AY39" s="25"/>
+      <c r="AZ39" s="25"/>
+      <c r="BA39" s="25"/>
+      <c r="BB39" s="25"/>
+      <c r="BC39" s="25"/>
+      <c r="BD39" s="25"/>
+      <c r="BE39" s="25"/>
+      <c r="BF39" s="25"/>
+      <c r="BG39" s="25"/>
+      <c r="BH39" s="25"/>
+      <c r="BI39" s="25"/>
+      <c r="BJ39" s="25"/>
+    </row>
+    <row r="40" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(G$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="H40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(H$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="I40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(I$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="J40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(J$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="K40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(K$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(L$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(M$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(N$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(O$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(P$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Q$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="R40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(R$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="S40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(S$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="T40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(T$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="U40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(U$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="V40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(V$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="W40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(W$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="X40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(X$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Y40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Y$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="Z40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(Z$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AA40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AA$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AB$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AC40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AC$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AD40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AD$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AE40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AE$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AF40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AF$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AG40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AG$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AH40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AH$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AI40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AI$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AJ$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AK40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AK$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AL40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AL$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AM40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AM$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AN40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AN$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AO40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AO$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AP40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AP$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AQ40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AQ$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AR40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AR$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AS40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AS$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AT40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AT$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AU40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AV40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AW40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AX40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AX$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AY40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AY$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="AZ40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AZ$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BA40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BA$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BB40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BB$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BC40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BC$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BD40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BD$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BE40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BE$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BF40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BF$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BG40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BG$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BH40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BH$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BI40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BI$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+      <c r="BJ40" s="25" t="str">
+        <f>IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(BJ$5=$D40,$E40=1),Meilenstein_Markierung,"")),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B41" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
-      <c r="AB39" s="24"/>
-      <c r="AC39" s="24"/>
-      <c r="AD39" s="24"/>
-      <c r="AE39" s="24"/>
-      <c r="AF39" s="24"/>
-      <c r="AG39" s="24"/>
-      <c r="AH39" s="24"/>
-      <c r="AI39" s="24"/>
-      <c r="AJ39" s="24"/>
-      <c r="AK39" s="24"/>
-      <c r="AL39" s="24"/>
-      <c r="AM39" s="24"/>
-      <c r="AN39" s="24"/>
-      <c r="AO39" s="24"/>
-      <c r="AP39" s="24"/>
-      <c r="AQ39" s="24"/>
-      <c r="AR39" s="24"/>
-      <c r="AS39" s="24"/>
-      <c r="AT39" s="24"/>
-      <c r="AU39" s="24"/>
-      <c r="AV39" s="24"/>
-      <c r="AW39" s="24"/>
-      <c r="AX39" s="24"/>
-      <c r="AY39" s="24"/>
-      <c r="AZ39" s="24"/>
-      <c r="BA39" s="24"/>
-      <c r="BB39" s="24"/>
-      <c r="BC39" s="24"/>
-      <c r="BD39" s="24"/>
-      <c r="BE39" s="24"/>
-      <c r="BF39" s="24"/>
-      <c r="BG39" s="24"/>
-      <c r="BH39" s="24"/>
-      <c r="BI39" s="24"/>
-      <c r="BJ39" s="24"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="24"/>
+      <c r="AG41" s="24"/>
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="24"/>
+      <c r="AJ41" s="24"/>
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="24"/>
+      <c r="AS41" s="24"/>
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="24"/>
+      <c r="AV41" s="24"/>
+      <c r="AW41" s="24"/>
+      <c r="AX41" s="24"/>
+      <c r="AY41" s="24"/>
+      <c r="AZ41" s="24"/>
+      <c r="BA41" s="24"/>
+      <c r="BB41" s="24"/>
+      <c r="BC41" s="24"/>
+      <c r="BD41" s="24"/>
+      <c r="BE41" s="24"/>
+      <c r="BF41" s="24"/>
+      <c r="BG41" s="24"/>
+      <c r="BH41" s="24"/>
+      <c r="BI41" s="24"/>
+      <c r="BJ41" s="24"/>
     </row>
-    <row r="40" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="11"/>
-      <c r="F40" s="3"/>
+    <row r="42" spans="1:62" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="11"/>
+      <c r="F42" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C38">
+  <conditionalFormatting sqref="C6:C40">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -8954,12 +9110,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:BJ38">
+  <conditionalFormatting sqref="G8:BJ40">
     <cfRule type="expression" dxfId="2" priority="78">
       <formula>G$5&lt;=Heute</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:BJ38">
+  <conditionalFormatting sqref="G7:BJ40">
     <cfRule type="expression" dxfId="1" priority="11" stopIfTrue="1">
       <formula>AND(G$5&gt;=$D7+1,G$5&lt;=$D7+$E7-2)</formula>
     </cfRule>
@@ -9029,7 +9185,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C38</xm:sqref>
+          <xm:sqref>C6:C40</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{6C427F2E-2EF5-46B4-BFA6-7C68148277AC}">
@@ -9051,7 +9207,7 @@
           <xm:sqref>E4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
+          <x14:cfRule type="iconSet" priority="92" id="{628A03C6-EE71-4B44-A6BA-69DC45906EA6}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -9067,7 +9223,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G7:BJ38</xm:sqref>
+          <xm:sqref>G7:BJ40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Gantt-Diagramm.xlsx
+++ b/Gantt-Diagramm.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216782C7-99ED-4D65-97D5-DFF3EE6CB791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396C9104-D671-41F6-8D68-3A5B47E7192C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
-    <sheet name="Info" sheetId="12" r:id="rId2"/>
+    <sheet name="Info" sheetId="12" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Gantt!$4:$6</definedName>
@@ -402,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +606,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -628,15 +634,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -699,17 +696,6 @@
       <top/>
       <bottom style="medium">
         <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,6 +893,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -921,7 +916,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -931,7 +926,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -940,14 +935,14 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1006,7 +1001,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="7"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,13 +1025,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1064,41 +1059,35 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="8" applyFill="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="17" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="15" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="13" xfId="11" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="11" xfId="11" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="8" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="3" borderId="10" xfId="11" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="11" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1">
@@ -1107,13 +1096,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="2" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="5" borderId="3" xfId="9" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="4" xfId="9" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,8 +1804,8 @@
   </sheetPr>
   <dimension ref="A1:BJ42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BZ37" sqref="BZ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1844,12 +1839,12 @@
       <c r="B2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="52">
+      <c r="C2" s="48"/>
+      <c r="D2" s="49">
         <f ca="1">IFERROR(IF(MIN(Meilensteine[Start])=0,TODAY(),MIN(Meilensteine[Start])),TODAY())</f>
         <v>43594</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="50"/>
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
@@ -1862,29 +1857,24 @@
         <v>1</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="36">
+      <c r="C3" s="48"/>
+      <c r="D3" s="52">
         <v>0</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="43"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:62" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="51"/>
-      <c r="D4" s="37">
-        <v>1</v>
-      </c>
-      <c r="E4" s="34">
-        <f>Meilenstein_Markierung</f>
-        <v>1</v>
-      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="34"/>
       <c r="G4" s="14" t="str">
         <f ca="1">TEXT(G5,"MMMM")</f>
         <v>Mai</v>
@@ -1972,227 +1962,227 @@
       </c>
       <c r="B5" s="35"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <f ca="1">IFERROR(Projekt_Start+Scroll_Schrittweite,TODAY())</f>
         <v>43594</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="44">
         <f ca="1">G5+1</f>
         <v>43595</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="45">
         <f t="shared" ref="I5:AV5" ca="1" si="0">H5+1</f>
         <v>43596</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="45">
         <f ca="1">I5+1</f>
         <v>43597</v>
       </c>
-      <c r="K5" s="47">
+      <c r="K5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43598</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43599</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43600</v>
       </c>
-      <c r="N5" s="47">
+      <c r="N5" s="45">
         <f ca="1">M5+1</f>
         <v>43601</v>
       </c>
-      <c r="O5" s="47">
+      <c r="O5" s="45">
         <f ca="1">N5+1</f>
         <v>43602</v>
       </c>
-      <c r="P5" s="47">
+      <c r="P5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43603</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43604</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43605</v>
       </c>
-      <c r="S5" s="47">
+      <c r="S5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43606</v>
       </c>
-      <c r="T5" s="47">
+      <c r="T5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43607</v>
       </c>
-      <c r="U5" s="47">
+      <c r="U5" s="45">
         <f ca="1">T5+1</f>
         <v>43608</v>
       </c>
-      <c r="V5" s="47">
+      <c r="V5" s="45">
         <f ca="1">U5+1</f>
         <v>43609</v>
       </c>
-      <c r="W5" s="47">
+      <c r="W5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43610</v>
       </c>
-      <c r="X5" s="47">
+      <c r="X5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43611</v>
       </c>
-      <c r="Y5" s="47">
+      <c r="Y5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43612</v>
       </c>
-      <c r="Z5" s="47">
+      <c r="Z5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43613</v>
       </c>
-      <c r="AA5" s="47">
+      <c r="AA5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43614</v>
       </c>
-      <c r="AB5" s="47">
+      <c r="AB5" s="45">
         <f ca="1">AA5+1</f>
         <v>43615</v>
       </c>
-      <c r="AC5" s="47">
+      <c r="AC5" s="45">
         <f ca="1">AB5+1</f>
         <v>43616</v>
       </c>
-      <c r="AD5" s="47">
+      <c r="AD5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43617</v>
       </c>
-      <c r="AE5" s="47">
+      <c r="AE5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43618</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43619</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AG5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43620</v>
       </c>
-      <c r="AH5" s="47">
+      <c r="AH5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43621</v>
       </c>
-      <c r="AI5" s="47">
+      <c r="AI5" s="45">
         <f ca="1">AH5+1</f>
         <v>43622</v>
       </c>
-      <c r="AJ5" s="47">
+      <c r="AJ5" s="45">
         <f ca="1">AI5+1</f>
         <v>43623</v>
       </c>
-      <c r="AK5" s="47">
+      <c r="AK5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43624</v>
       </c>
-      <c r="AL5" s="47">
+      <c r="AL5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43625</v>
       </c>
-      <c r="AM5" s="47">
+      <c r="AM5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43626</v>
       </c>
-      <c r="AN5" s="47">
+      <c r="AN5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43627</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AO5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43628</v>
       </c>
-      <c r="AP5" s="47">
+      <c r="AP5" s="45">
         <f ca="1">AO5+1</f>
         <v>43629</v>
       </c>
-      <c r="AQ5" s="47">
+      <c r="AQ5" s="45">
         <f ca="1">AP5+1</f>
         <v>43630</v>
       </c>
-      <c r="AR5" s="47">
+      <c r="AR5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43631</v>
       </c>
-      <c r="AS5" s="47">
+      <c r="AS5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43632</v>
       </c>
-      <c r="AT5" s="47">
+      <c r="AT5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43633</v>
       </c>
-      <c r="AU5" s="47">
+      <c r="AU5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43634</v>
       </c>
-      <c r="AV5" s="47">
+      <c r="AV5" s="45">
         <f t="shared" ca="1" si="0"/>
         <v>43635</v>
       </c>
-      <c r="AW5" s="47">
+      <c r="AW5" s="45">
         <f ca="1">AV5+1</f>
         <v>43636</v>
       </c>
-      <c r="AX5" s="47">
+      <c r="AX5" s="45">
         <f ca="1">AW5+1</f>
         <v>43637</v>
       </c>
-      <c r="AY5" s="47">
+      <c r="AY5" s="45">
         <f t="shared" ref="AY5:BC5" ca="1" si="1">AX5+1</f>
         <v>43638</v>
       </c>
-      <c r="AZ5" s="47">
+      <c r="AZ5" s="45">
         <f t="shared" ca="1" si="1"/>
         <v>43639</v>
       </c>
-      <c r="BA5" s="47">
+      <c r="BA5" s="45">
         <f t="shared" ca="1" si="1"/>
         <v>43640</v>
       </c>
-      <c r="BB5" s="47">
+      <c r="BB5" s="45">
         <f t="shared" ca="1" si="1"/>
         <v>43641</v>
       </c>
-      <c r="BC5" s="47">
+      <c r="BC5" s="45">
         <f t="shared" ca="1" si="1"/>
         <v>43642</v>
       </c>
-      <c r="BD5" s="47">
+      <c r="BD5" s="45">
         <f ca="1">BC5+1</f>
         <v>43643</v>
       </c>
-      <c r="BE5" s="47">
+      <c r="BE5" s="45">
         <f ca="1">BD5+1</f>
         <v>43644</v>
       </c>
-      <c r="BF5" s="47">
+      <c r="BF5" s="45">
         <f t="shared" ref="BF5:BJ5" ca="1" si="2">BE5+1</f>
         <v>43645</v>
       </c>
-      <c r="BG5" s="47">
+      <c r="BG5" s="45">
         <f t="shared" ca="1" si="2"/>
         <v>43646</v>
       </c>
-      <c r="BH5" s="47">
+      <c r="BH5" s="45">
         <f t="shared" ca="1" si="2"/>
         <v>43647</v>
       </c>
-      <c r="BI5" s="47">
+      <c r="BI5" s="45">
         <f t="shared" ca="1" si="2"/>
         <v>43648</v>
       </c>
-      <c r="BJ5" s="48">
+      <c r="BJ5" s="46">
         <f t="shared" ca="1" si="2"/>
         <v>43649</v>
       </c>
@@ -2214,232 +2204,232 @@
         <v>13</v>
       </c>
       <c r="F6" s="18"/>
-      <c r="G6" s="39" t="str">
+      <c r="G6" s="37" t="str">
         <f t="shared" ref="G6:AL6" ca="1" si="3">LEFT(TEXT(G5,"TTT"),1)</f>
         <v>D</v>
       </c>
-      <c r="H6" s="40" t="str">
+      <c r="H6" s="38" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="I6" s="42" t="str">
+      <c r="I6" s="40" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="L6" s="41" t="str">
+      <c r="L6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="M6" s="41" t="str">
+      <c r="M6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="N6" s="41" t="str">
+      <c r="N6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="O6" s="41" t="str">
+      <c r="O6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="Q6" s="41" t="str">
+      <c r="Q6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="R6" s="41" t="str">
+      <c r="R6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="S6" s="41" t="str">
+      <c r="S6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="T6" s="41" t="str">
+      <c r="T6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="U6" s="41" t="str">
+      <c r="U6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="V6" s="41" t="str">
+      <c r="V6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="W6" s="41" t="str">
+      <c r="W6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="X6" s="41" t="str">
+      <c r="X6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="Y6" s="41" t="str">
+      <c r="Y6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="Z6" s="41" t="str">
+      <c r="Z6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="AA6" s="41" t="str">
+      <c r="AA6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AB6" s="41" t="str">
+      <c r="AB6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="AC6" s="41" t="str">
+      <c r="AC6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AD6" s="41" t="str">
+      <c r="AD6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AE6" s="41" t="str">
+      <c r="AE6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AF6" s="41" t="str">
+      <c r="AF6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AG6" s="41" t="str">
+      <c r="AG6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="AH6" s="41" t="str">
+      <c r="AH6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>M</v>
       </c>
-      <c r="AI6" s="41" t="str">
+      <c r="AI6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>D</v>
       </c>
-      <c r="AJ6" s="41" t="str">
+      <c r="AJ6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>F</v>
       </c>
-      <c r="AK6" s="41" t="str">
+      <c r="AK6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AL6" s="41" t="str">
+      <c r="AL6" s="39" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>S</v>
       </c>
-      <c r="AM6" s="41" t="str">
+      <c r="AM6" s="39" t="str">
         <f t="shared" ref="AM6:BJ6" ca="1" si="4">LEFT(TEXT(AM5,"TTT"),1)</f>
         <v>M</v>
       </c>
-      <c r="AN6" s="41" t="str">
+      <c r="AN6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="AO6" s="41" t="str">
+      <c r="AO6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AP6" s="41" t="str">
+      <c r="AP6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="AQ6" s="41" t="str">
+      <c r="AQ6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AR6" s="41" t="str">
+      <c r="AR6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AS6" s="41" t="str">
+      <c r="AS6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AT6" s="41" t="str">
+      <c r="AT6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AU6" s="41" t="str">
+      <c r="AU6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="AV6" s="41" t="str">
+      <c r="AV6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="AW6" s="41" t="str">
+      <c r="AW6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="AX6" s="41" t="str">
+      <c r="AX6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="AY6" s="41" t="str">
+      <c r="AY6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="AZ6" s="41" t="str">
+      <c r="AZ6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BA6" s="41" t="str">
+      <c r="BA6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="BB6" s="41" t="str">
+      <c r="BB6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="BC6" s="41" t="str">
+      <c r="BC6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="BD6" s="41" t="str">
+      <c r="BD6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="BE6" s="41" t="str">
+      <c r="BE6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>F</v>
       </c>
-      <c r="BF6" s="41" t="str">
+      <c r="BF6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BG6" s="41" t="str">
+      <c r="BG6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>S</v>
       </c>
-      <c r="BH6" s="41" t="str">
+      <c r="BH6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
-      <c r="BI6" s="41" t="str">
+      <c r="BI6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>D</v>
       </c>
-      <c r="BJ6" s="41" t="str">
+      <c r="BJ6" s="39" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>M</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -2447,62 +2437,62 @@
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="23"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BE7" s="38"/>
-      <c r="BF7" s="38"/>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="36"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+      <c r="AJ7" s="36"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
+      <c r="AN7" s="36"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
+      <c r="AZ7" s="36"/>
+      <c r="BA7" s="36"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
+      <c r="BD7" s="36"/>
+      <c r="BE7" s="36"/>
+      <c r="BF7" s="36"/>
+      <c r="BG7" s="36"/>
+      <c r="BH7" s="36"/>
+      <c r="BI7" s="36"/>
+      <c r="BJ7" s="36"/>
     </row>
     <row r="8" spans="1:62" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2512,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="49"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="23"/>
       <c r="F8" s="17"/>
       <c r="G8" s="25" t="str">
@@ -2748,7 +2738,7 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="47">
         <v>43594</v>
       </c>
       <c r="E9" s="23">
@@ -2988,7 +2978,7 @@
       <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="47">
         <v>43600</v>
       </c>
       <c r="E10" s="23">
@@ -3226,9 +3216,9 @@
         <v>23</v>
       </c>
       <c r="C11" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="47">
         <v>43594</v>
       </c>
       <c r="E11" s="23">
@@ -3466,9 +3456,9 @@
         <v>24</v>
       </c>
       <c r="C12" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D12" s="49">
+        <v>1</v>
+      </c>
+      <c r="D12" s="47">
         <v>43594</v>
       </c>
       <c r="E12" s="23">
@@ -3706,9 +3696,9 @@
         <v>25</v>
       </c>
       <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49">
+        <v>1</v>
+      </c>
+      <c r="D13" s="47">
         <v>43626</v>
       </c>
       <c r="E13" s="23">
@@ -3946,7 +3936,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="49"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="23"/>
       <c r="F14" s="17"/>
       <c r="G14" s="25" t="str">
@@ -4182,7 +4172,7 @@
       <c r="C15" s="21">
         <v>1</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="47">
         <v>43616</v>
       </c>
       <c r="E15" s="23">
@@ -4422,7 +4412,7 @@
       <c r="C16" s="21">
         <v>0.95</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47">
         <v>43606</v>
       </c>
       <c r="E16" s="23">
@@ -4662,7 +4652,7 @@
       <c r="C17" s="21">
         <v>0.95</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="47">
         <v>43598</v>
       </c>
       <c r="E17" s="23">
@@ -4902,7 +4892,7 @@
       <c r="C18" s="21">
         <v>0.95</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="47">
         <v>43612</v>
       </c>
       <c r="E18" s="23">
@@ -5142,7 +5132,7 @@
       <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="47">
         <v>43606</v>
       </c>
       <c r="E19" s="23">
@@ -5382,7 +5372,7 @@
       <c r="C20" s="21">
         <v>1</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="47">
         <v>43614</v>
       </c>
       <c r="E20" s="23">
@@ -5454,7 +5444,7 @@
       <c r="C21" s="21">
         <v>1</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="47">
         <v>43619</v>
       </c>
       <c r="E21" s="23">
@@ -5526,7 +5516,7 @@
       <c r="C22" s="21">
         <v>0.95</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="47">
         <v>43619</v>
       </c>
       <c r="E22" s="23">
@@ -5598,7 +5588,7 @@
       <c r="C23" s="21">
         <v>0.95</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="47">
         <v>43619</v>
       </c>
       <c r="E23" s="23">
@@ -5670,7 +5660,7 @@
       <c r="C24" s="21">
         <v>1</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="47">
         <v>43619</v>
       </c>
       <c r="E24" s="23">
@@ -5740,7 +5730,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="21"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="23"/>
       <c r="F25" s="17"/>
       <c r="G25" s="25" t="str">
@@ -5976,7 +5966,7 @@
       <c r="C26" s="21">
         <v>0.5</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="47">
         <v>43616</v>
       </c>
       <c r="E26" s="23">
@@ -6216,7 +6206,7 @@
       <c r="C27" s="21">
         <v>0.9</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="47">
         <v>43612</v>
       </c>
       <c r="E27" s="23">
@@ -6456,7 +6446,7 @@
       <c r="C28" s="21">
         <v>1</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="47">
         <v>43606</v>
       </c>
       <c r="E28" s="23">
@@ -6696,7 +6686,7 @@
       <c r="C29" s="21">
         <v>1</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="47">
         <v>43619</v>
       </c>
       <c r="E29" s="23">
@@ -6934,9 +6924,9 @@
         <v>28</v>
       </c>
       <c r="C30" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="49">
+        <v>1</v>
+      </c>
+      <c r="D30" s="47">
         <v>43626</v>
       </c>
       <c r="E30" s="23">
@@ -7174,7 +7164,7 @@
         <v>37</v>
       </c>
       <c r="C31" s="21"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="23"/>
       <c r="F31" s="17"/>
       <c r="G31" s="25"/>
@@ -7242,7 +7232,7 @@
       <c r="C32" s="21">
         <v>0.95</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="47">
         <v>43617</v>
       </c>
       <c r="E32" s="23"/>
@@ -7310,7 +7300,7 @@
         <v>29</v>
       </c>
       <c r="C33" s="21"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="23"/>
       <c r="F33" s="17"/>
       <c r="G33" s="25" t="str">
@@ -7544,9 +7534,9 @@
         <v>30</v>
       </c>
       <c r="C34" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="49">
+        <v>1</v>
+      </c>
+      <c r="D34" s="47">
         <v>43619</v>
       </c>
       <c r="E34" s="23">
@@ -7784,9 +7774,9 @@
         <v>31</v>
       </c>
       <c r="C35" s="21">
-        <v>0.75</v>
-      </c>
-      <c r="D35" s="49">
+        <v>1</v>
+      </c>
+      <c r="D35" s="47">
         <v>43626</v>
       </c>
       <c r="E35" s="23">
@@ -8024,13 +8014,13 @@
         <v>25</v>
       </c>
       <c r="C36" s="21">
-        <v>0</v>
-      </c>
-      <c r="D36" s="49">
-        <v>43633</v>
+        <v>1</v>
+      </c>
+      <c r="D36" s="47">
+        <v>43635</v>
       </c>
       <c r="E36" s="23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="25" t="str">
@@ -8197,9 +8187,9 @@
         <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AU$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
         <v/>
       </c>
-      <c r="AV36" s="25" t="str">
+      <c r="AV36" s="25">
         <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AV$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AW36" s="25" t="str">
         <f ca="1">IFERROR(IF(LEN(Meilensteine[[#This Row],[Anzahl Tage]])=0,"",IF(AND(AW$5=$D36,$E36=1),Meilenstein_Markierung,"")),"")</f>
@@ -8262,7 +8252,7 @@
       <c r="A37" s="9"/>
       <c r="B37" s="27"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="49"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="23"/>
       <c r="F37" s="17"/>
       <c r="G37" s="25" t="str">
@@ -8494,7 +8484,7 @@
       <c r="A38" s="9"/>
       <c r="B38" s="27"/>
       <c r="C38" s="21"/>
-      <c r="D38" s="49"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="23"/>
       <c r="F38" s="17"/>
       <c r="G38" s="25" t="str">
@@ -8726,7 +8716,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="27"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="49"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="23"/>
       <c r="F39" s="17"/>
       <c r="G39" s="25"/>
@@ -8792,7 +8782,7 @@
       </c>
       <c r="B40" s="27"/>
       <c r="C40" s="21"/>
-      <c r="D40" s="49"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="23"/>
       <c r="F40" s="17"/>
       <c r="G40" s="25" t="str">
